--- a/MainTop/14.05.2025/кластеры58_sorted.xlsx
+++ b/MainTop/14.05.2025/кластеры58_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\14.05.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3BA218-E792-4D3E-A594-B55DB39A575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078618B-0B79-4477-80F7-B412A1B0AA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -988,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P171"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,40 +1956,40 @@
         <v>35</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="4">
         <v>14</v>
@@ -2286,15 +2286,16 @@
         <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="4">
+        <f>SUM(B26:N26)</f>
         <v>12</v>
       </c>
       <c r="P26" s="4" t="s">
@@ -5924,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="5">
         <v>0</v>
@@ -9499,64 +9500,6 @@
       </c>
       <c r="P170" s="7" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B171">
-        <f>SUM(B2:B170)</f>
-        <v>113</v>
-      </c>
-      <c r="C171">
-        <f t="shared" ref="C171:O171" si="0">SUM(C2:C170)</f>
-        <v>127</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="G171">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="H171">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="I171">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J171">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="K171">
-        <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="L171">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="M171">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="N171">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="O171">
-        <f t="shared" si="0"/>
-        <v>1580</v>
       </c>
     </row>
   </sheetData>
